--- a/data/hotels_by_city/Houston/Houston_shard_607.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_607.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12712165-Reviews-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>312</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-W-Westchase-Area.h19404209.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_607.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -145,6 +145,156 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r612670651-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12712165</t>
+  </si>
+  <si>
+    <t>612670651</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Hotel stay was GREAT along with friendly staff and safe place to stay. Security is good at the hotel. Staff is friendly with great knowledge of area and very helpful to find places to eat at our hotel.I recommend this hotel to anyone wanting to stay in nice clean hotel with great staff.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r579519858-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579519858</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>A great find</t>
+  </si>
+  <si>
+    <t>The Staybridge Westchase is an ideal location just off the W Sam Houston Parkway South. Great breakfast and reliable free WiFi. Welcome coffee and popcorn in room. Walk-in shower a good size and has a fully fitted kitchenette including fridge/freezer and microwave. Only drawback (not Staybridge fault) is that there is no hot food available nearby. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Naya R, Front Office Manager at Staybridge Suites Houston Westchase, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>The Staybridge Westchase is an ideal location just off the W Sam Houston Parkway South. Great breakfast and reliable free WiFi. Welcome coffee and popcorn in room. Walk-in shower a good size and has a fully fitted kitchenette including fridge/freezer and microwave. Only drawback (not Staybridge fault) is that there is no hot food available nearby. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r597317676-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597317676</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Nice Rooms/Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>My experience was awesome. Sharee the front desk manager is the best hands down. The rooms are quiet, amenities are great and we loved our stay. I love the complimentary breakfast. Overall it was a comfortable and relaxing stay at a reasonable price. Thank you to all the staff at the Staybridge for being so welcoming. I will see you soon.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r581048639-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581048639</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Nice Apartment Hotel</t>
+  </si>
+  <si>
+    <t>This is a newly opened establishment. Has ample parking spaces and conveniently located near to Chinatown. So if you need some grocery shopping or grub this is very convenient. Staff is very polite and helpful. Rooms are clean and kitchenette is large and well equipped. The air conditioning in the room is rather noisy but otherwise that is the only drawback. It has a bbq grill and swimming pool, gym and laundromat. You can stay here for extended period of time. I must say for a newly setup hotel it is great. Keep it up!MoreShow less</t>
+  </si>
+  <si>
+    <t>Naya R, Front Office Manager at Staybridge Suites Houston Westchase, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>This is a newly opened establishment. Has ample parking spaces and conveniently located near to Chinatown. So if you need some grocery shopping or grub this is very convenient. Staff is very polite and helpful. Rooms are clean and kitchenette is large and well equipped. The air conditioning in the room is rather noisy but otherwise that is the only drawback. It has a bbq grill and swimming pool, gym and laundromat. You can stay here for extended period of time. I must say for a newly setup hotel it is great. Keep it up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r543252735-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543252735</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE/ LYING MANAGEMENT AND CUSTOMER SERVICE. FRONT DESK NEEDS TRAINING</t>
+  </si>
+  <si>
+    <t>First off, I would like to mention how I never stepped foot into the room or even away from the front desk until I left. I booked my reservation through the IHG mobile app. I wanted a getaway with my best friend and I've wanted to stay with Staybridge for awhile and figured I'd choose this one because it was new. I had a two month old dog with me and read online about the pet policy. It said, pets are welcome under 50lbs with proof of updated medical records etc. and I would just need to fill out a form once I check in. I arrive at the hotel and let the front desk agent know I have a small dog and I would need to fill out the forms. She then says, "It's a $75.00 pet fee." I said, it doesn't say that on the website. She points to the wall at the front desk and says, "It says it right there." I said, this is not on the website. I don't know anything about a pet fee until I arrive. I can imagine anyone who walks in this door has never stayed here before considering the hotel is relatively brand new. I showed her the website with the pet policy where it does not show anything about a pet fee. She says, "well you're still going to pay it. We're not responsible for what is not on...First off, I would like to mention how I never stepped foot into the room or even away from the front desk until I left. I booked my reservation through the IHG mobile app. I wanted a getaway with my best friend and I've wanted to stay with Staybridge for awhile and figured I'd choose this one because it was new. I had a two month old dog with me and read online about the pet policy. It said, pets are welcome under 50lbs with proof of updated medical records etc. and I would just need to fill out a form once I check in. I arrive at the hotel and let the front desk agent know I have a small dog and I would need to fill out the forms. She then says, "It's a $75.00 pet fee." I said, it doesn't say that on the website. She points to the wall at the front desk and says, "It says it right there." I said, this is not on the website. I don't know anything about a pet fee until I arrive. I can imagine anyone who walks in this door has never stayed here before considering the hotel is relatively brand new. I showed her the website with the pet policy where it does not show anything about a pet fee. She says, "well you're still going to pay it. We're not responsible for what is not on the website." She calls her manager and whoever it was tells her that I am still going to have to be responsible for paying the fee and asked what website or app was I using. I said, I am using the IHG APP (thinking to myself duh). Front desk agent says that the hotel is only two weeks old and it has some glitches. I said, well that's not my fault and I am not going to be responsible for that and I will not pay it. I then spoke to IHG guest relations. She searched for the hotel details on the desktop initially and said the pet fee was there. I asked was she on the IHG APP. She grabbed her phone and confirmed that the pet fee was NOT listed on the app and the only that was asked for was the pet's medical records. She also said it is there responsibility to have that type of information updated on every platform to avoid this type of confusion. She spoke to the hotel and it was the same result. They wanted to hold me responsible for the fee. She gave me a case number and advised me to speak to a manager and to call them back if the situation had not been resolved. While I am on the phone with IHG, front desk agent calls to basically say that she spoke to her manager and she says they have me on record calling in and asking about the pet fee to make it seem like I was well aware of the fee. I told her and IHG that I had never contacted that hotel directly. IHG confirmed that everything was done online and not directly with the hotel. I told them I was not staying there and to cancel my reservation. This was extremely poor service. I asked to speak to the manager myself, but was unable to due to the fact that the number could not be given out. I completely understand that, but there is a thing called conference calls or I could've just spoke to the manager on the hotels phone. I did not receive one apology from the hotel. They did not admit to making the mistake on their end. All they could say was that they weren't responsible for what was on the IHG's website. I could understand if this was done through a third party, then you would not be liable, but this is directly through the brand that sets the standard whether the hotel is individually owned or not. If I could give this rating less than one star I would. It was very annoying to drive 40 mins there and to have to drive 40 mins back because of this. I will write reviews on every site that I can so others can be aware. This hotel lacks training and customer service. The front desk agent was rude and didn't apologize herself. Seemed like she had no hotel experience and was just saying what her manager told her to. I do not appreciate being lied on either about previously speaking to the hotel. Even if it were true, she would not have been to able to pull up any records of me contacting the hotel that quickly. I am very disappointed and was looking forward to staying with Staybridge, but I will not now and will not refer anyone else to stay at this property. I would like to be contacted as soon as possible, because I strongly believe the manager isn't going to do anything about this as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Amber B, Manager at Staybridge Suites Houston Westchase, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>First off, I would like to mention how I never stepped foot into the room or even away from the front desk until I left. I booked my reservation through the IHG mobile app. I wanted a getaway with my best friend and I've wanted to stay with Staybridge for awhile and figured I'd choose this one because it was new. I had a two month old dog with me and read online about the pet policy. It said, pets are welcome under 50lbs with proof of updated medical records etc. and I would just need to fill out a form once I check in. I arrive at the hotel and let the front desk agent know I have a small dog and I would need to fill out the forms. She then says, "It's a $75.00 pet fee." I said, it doesn't say that on the website. She points to the wall at the front desk and says, "It says it right there." I said, this is not on the website. I don't know anything about a pet fee until I arrive. I can imagine anyone who walks in this door has never stayed here before considering the hotel is relatively brand new. I showed her the website with the pet policy where it does not show anything about a pet fee. She says, "well you're still going to pay it. We're not responsible for what is not on...First off, I would like to mention how I never stepped foot into the room or even away from the front desk until I left. I booked my reservation through the IHG mobile app. I wanted a getaway with my best friend and I've wanted to stay with Staybridge for awhile and figured I'd choose this one because it was new. I had a two month old dog with me and read online about the pet policy. It said, pets are welcome under 50lbs with proof of updated medical records etc. and I would just need to fill out a form once I check in. I arrive at the hotel and let the front desk agent know I have a small dog and I would need to fill out the forms. She then says, "It's a $75.00 pet fee." I said, it doesn't say that on the website. She points to the wall at the front desk and says, "It says it right there." I said, this is not on the website. I don't know anything about a pet fee until I arrive. I can imagine anyone who walks in this door has never stayed here before considering the hotel is relatively brand new. I showed her the website with the pet policy where it does not show anything about a pet fee. She says, "well you're still going to pay it. We're not responsible for what is not on the website." She calls her manager and whoever it was tells her that I am still going to have to be responsible for paying the fee and asked what website or app was I using. I said, I am using the IHG APP (thinking to myself duh). Front desk agent says that the hotel is only two weeks old and it has some glitches. I said, well that's not my fault and I am not going to be responsible for that and I will not pay it. I then spoke to IHG guest relations. She searched for the hotel details on the desktop initially and said the pet fee was there. I asked was she on the IHG APP. She grabbed her phone and confirmed that the pet fee was NOT listed on the app and the only that was asked for was the pet's medical records. She also said it is there responsibility to have that type of information updated on every platform to avoid this type of confusion. She spoke to the hotel and it was the same result. They wanted to hold me responsible for the fee. She gave me a case number and advised me to speak to a manager and to call them back if the situation had not been resolved. While I am on the phone with IHG, front desk agent calls to basically say that she spoke to her manager and she says they have me on record calling in and asking about the pet fee to make it seem like I was well aware of the fee. I told her and IHG that I had never contacted that hotel directly. IHG confirmed that everything was done online and not directly with the hotel. I told them I was not staying there and to cancel my reservation. This was extremely poor service. I asked to speak to the manager myself, but was unable to due to the fact that the number could not be given out. I completely understand that, but there is a thing called conference calls or I could've just spoke to the manager on the hotels phone. I did not receive one apology from the hotel. They did not admit to making the mistake on their end. All they could say was that they weren't responsible for what was on the IHG's website. I could understand if this was done through a third party, then you would not be liable, but this is directly through the brand that sets the standard whether the hotel is individually owned or not. If I could give this rating less than one star I would. It was very annoying to drive 40 mins there and to have to drive 40 mins back because of this. I will write reviews on every site that I can so others can be aware. This hotel lacks training and customer service. The front desk agent was rude and didn't apologize herself. Seemed like she had no hotel experience and was just saying what her manager told her to. I do not appreciate being lied on either about previously speaking to the hotel. Even if it were true, she would not have been to able to pull up any records of me contacting the hotel that quickly. I am very disappointed and was looking forward to staying with Staybridge, but I will not now and will not refer anyone else to stay at this property. I would like to be contacted as soon as possible, because I strongly believe the manager isn't going to do anything about this as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12712165-r541273002-Staybridge_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541273002</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>New Hotel Next to Chinatown</t>
+  </si>
+  <si>
+    <t>PROS:-new hotel-next to Chinatown-numerous shops and restaurants closeby-walking distance to 85 degrees cafe (it’s soooo good!)-helpful staff-breakfast and sundownerCONS:-housekeeping could do a better job cleaning the room-had two phone hang ups in the middle of the night-no gate for easy access to the shops and restaurants in Chinatown (key card gate would be great for safety)MoreShow less</t>
+  </si>
+  <si>
+    <t>PROS:-new hotel-next to Chinatown-numerous shops and restaurants closeby-walking distance to 85 degrees cafe (it’s soooo good!)-helpful staff-breakfast and sundownerCONS:-housekeeping could do a better job cleaning the room-had two phone hang ups in the middle of the night-no gate for easy access to the shops and restaurants in Chinatown (key card gate would be great for safety)More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +795,376 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66617</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>